--- a/data/trans_dic/IQ23_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IQ23_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/IQ23_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IQ23_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,4%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,22%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,05%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,8%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>44,67; 60,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>40,75; 55,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>41,18; 55,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>16,43; 32,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>43,09; 57,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>42,84; 57,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>38,31; 52,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>19,95; 36,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>46,19; 56,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>44,65; 54,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>41,45; 51,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>20,19; 31,99</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,86%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,22%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>71,05; 79,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>69,47; 78,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>62,25; 72,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>58,13; 70,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>74,34; 82,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>68,68; 77,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>55,48; 65,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>57,93; 70,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>73,88; 79,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>70,49; 77,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>60,54; 67,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>59,42; 68,29</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,06%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,62%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,74%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>72,72; 84,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>73,11; 83,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>66,79; 77,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>69,15; 81,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>67,42; 79,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>68,02; 79,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>68,27; 78,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>63,91; 76,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>71,96; 79,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>72,59; 80,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>68,96; 76,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>68,54; 76,86</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,23%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,68%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,77%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>74,34; 84,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>77,62; 87,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>76,37; 86,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>77,3; 87,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>77,55; 86,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>78,87; 87,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>78,58; 88,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>75,8; 85,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>77,38; 84,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>79,76; 86,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>78,75; 85,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>78,3; 85,45</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,73%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,82%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,74%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,82%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,43%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>71,17; 76,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>69,15; 74,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>65,99; 71,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>68,0; 75,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>71,33; 76,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>68,73; 74,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>64,18; 69,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>66,64; 73,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>71,97; 75,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>69,71; 73,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>65,75; 69,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>67,74; 72,85</t>
         </is>
       </c>
     </row>
